--- a/Tables/Specific Reboiler Duty performance.xlsx
+++ b/Tables/Specific Reboiler Duty performance.xlsx
@@ -55,7 +55,7 @@
     <t>SV_SRD</t>
   </si>
   <si>
-    <t>DN_SRD</t>
+    <t>DL_SRD</t>
   </si>
 </sst>
 </file>
@@ -485,25 +485,25 @@
         <v>0.9993855665103323</v>
       </c>
       <c r="C3">
-        <v>0.01478140644530065</v>
+        <v>0.01478140644530066</v>
       </c>
       <c r="D3">
-        <v>0.003458865534386071</v>
+        <v>0.003458865534386073</v>
       </c>
       <c r="E3">
-        <v>0.03084296763557898</v>
+        <v>0.030842967635579</v>
       </c>
       <c r="F3">
         <v>0.9980936144804615</v>
       </c>
       <c r="G3">
-        <v>0.01859583913606866</v>
+        <v>0.01859583913606864</v>
       </c>
       <c r="H3">
-        <v>0.004585074682976601</v>
+        <v>0.004585074682976598</v>
       </c>
       <c r="I3">
-        <v>0.05432804585156274</v>
+        <v>0.05432804585156271</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -569,28 +569,28 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>0.9986198947294935</v>
+        <v>0.9986199039263873</v>
       </c>
       <c r="C6">
-        <v>0.03360601005153122</v>
+        <v>0.03360588346129266</v>
       </c>
       <c r="D6">
-        <v>0.006771251059628963</v>
+        <v>0.006771228424570977</v>
       </c>
       <c r="E6">
-        <v>0.04622477713134503</v>
+        <v>0.04622462311226979</v>
       </c>
       <c r="F6">
-        <v>0.9886907456252153</v>
+        <v>0.9886907418091986</v>
       </c>
       <c r="G6">
-        <v>0.1014620193120475</v>
+        <v>0.1014620109562562</v>
       </c>
       <c r="H6">
-        <v>0.02263173263796625</v>
+        <v>0.0226317306439741</v>
       </c>
       <c r="I6">
-        <v>0.1323231116555411</v>
+        <v>0.1323231339800526</v>
       </c>
     </row>
   </sheetData>
